--- a/meta_data/hoaglands_recipes_p_v0.xlsx
+++ b/meta_data/hoaglands_recipes_p_v0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrkel\Documents\git\2025_g34p\meta_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E723D665-74C1-4D0C-9B6B-5E0F1A035421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2285732-9989-4244-B808-B9550CACF96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{CEBD6CB8-EBC1-4974-8449-BAC066E52B02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CEBD6CB8-EBC1-4974-8449-BAC066E52B02}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="4" r:id="rId1"/>
@@ -1771,7 +1771,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1895,8 +1895,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -7865,8 +7863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C78B62F-EF29-4C84-9B69-88D9346045DD}">
   <dimension ref="B1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8319,7 +8317,7 @@
       <c r="B9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
@@ -9053,18 +9051,18 @@
       <c r="B22" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22">
         <f>C6</f>
         <v>1</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22">
         <v>14.006</v>
       </c>
-      <c r="E22" s="81">
+      <c r="E22">
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="F22" s="82">
+      <c r="F22" s="38">
         <f t="shared" ref="F22:F35" si="11">IF(OR(C22=0, E22=0), 0, (D22*1000)/(1000/(C22*E22)))</f>
         <v>0</v>
       </c>
@@ -9136,18 +9134,18 @@
       <c r="B23" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23">
         <f>C6</f>
         <v>1</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23">
         <v>30.973700000000001</v>
       </c>
-      <c r="E23" s="81">
+      <c r="E23">
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="F23" s="82">
+      <c r="F23" s="38">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -9217,18 +9215,18 @@
       <c r="B24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24">
         <f>C7</f>
         <v>2</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24">
         <v>39.094299999999997</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24">
         <f>E7</f>
         <v>1.5</v>
       </c>
-      <c r="F24" s="82">
+      <c r="F24" s="38">
         <f t="shared" si="11"/>
         <v>117.2829</v>
       </c>
@@ -9300,18 +9298,18 @@
       <c r="B25" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25">
         <f>C7</f>
         <v>2</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25">
         <v>14.006</v>
       </c>
-      <c r="E25" s="81">
+      <c r="E25">
         <f>E7</f>
         <v>1.5</v>
       </c>
-      <c r="F25" s="82">
+      <c r="F25" s="38">
         <f t="shared" si="11"/>
         <v>42.018000000000001</v>
       </c>
@@ -9383,18 +9381,18 @@
       <c r="B26" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26">
         <f>C8</f>
         <v>2</v>
       </c>
-      <c r="D26" s="81">
+      <c r="D26">
         <v>40.078000000000003</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26">
         <f>E8</f>
         <v>1</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="38">
         <f t="shared" si="11"/>
         <v>80.156000000000006</v>
       </c>
@@ -9466,18 +9464,18 @@
       <c r="B27" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27">
         <f>C8</f>
         <v>2</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27">
         <v>28.012</v>
       </c>
-      <c r="E27" s="81">
+      <c r="E27">
         <f>E8</f>
         <v>1</v>
       </c>
-      <c r="F27" s="82">
+      <c r="F27" s="38">
         <f t="shared" si="11"/>
         <v>56.024000000000001</v>
       </c>
@@ -9542,18 +9540,18 @@
       <c r="B28" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28">
         <f>C9</f>
         <v>1</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28">
         <v>28.012</v>
       </c>
-      <c r="E28" s="81">
+      <c r="E28">
         <f>E9</f>
         <v>4</v>
       </c>
-      <c r="F28" s="82">
+      <c r="F28" s="38">
         <f>IF(OR(C28=0, E28=0), 0, (D28*1000)/(1000/(C28*E28)))</f>
         <v>112.048</v>
       </c>
@@ -9625,18 +9623,18 @@
       <c r="B29" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29">
         <f>C13</f>
         <v>1</v>
       </c>
-      <c r="D29" s="81">
+      <c r="D29">
         <v>39.094299999999997</v>
       </c>
-      <c r="E29" s="81">
+      <c r="E29">
         <f>E13</f>
         <v>0</v>
       </c>
-      <c r="F29" s="82">
+      <c r="F29" s="38">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -9708,18 +9706,18 @@
       <c r="B30" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30">
         <f>C13</f>
         <v>1</v>
       </c>
-      <c r="D30" s="81">
+      <c r="D30">
         <v>30.973700000000001</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30">
         <f>E13</f>
         <v>0</v>
       </c>
-      <c r="F30" s="82">
+      <c r="F30" s="38">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -9791,18 +9789,18 @@
       <c r="B31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31">
         <f>C14</f>
         <v>1</v>
       </c>
-      <c r="D31" s="81">
+      <c r="D31">
         <v>39.094299999999997</v>
       </c>
-      <c r="E31" s="81">
+      <c r="E31">
         <f>E14</f>
         <v>1</v>
       </c>
-      <c r="F31" s="82">
+      <c r="F31" s="38">
         <f t="shared" si="11"/>
         <v>39.094299999999997</v>
       </c>
